--- a/week4_inflation/data/상하이컨테이너운임지수_2022.xlsx
+++ b/week4_inflation/data/상하이컨테이너운임지수_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fdb7fe0c9aa2911/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINSU\BigData_KNU\team_project\week4_inflation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB596A6-A05E-49D9-8178-E542F024CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4C5B2-D315-4AC4-B332-CF5384B33667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="1644" windowWidth="17280" windowHeight="9960" xr2:uid="{0C70B91D-B886-4634-8F44-0D5DC6F25CC2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9960" xr2:uid="{0C70B91D-B886-4634-8F44-0D5DC6F25CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>지수</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>2021.01.08</t>
   </si>
@@ -319,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,30 +335,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD7D7D7"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,16 +662,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D4F4D-13FE-4775-B0D1-FDB6189DA4CF}">
-  <dimension ref="A1:CB2"/>
+  <dimension ref="A1:CA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:80" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:79" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -926,254 +908,247 @@
       <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="2" spans="1:80" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:79" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2870.34</v>
+      </c>
       <c r="B2" s="1">
-        <v>2870.34</v>
+        <v>2885</v>
       </c>
       <c r="C2" s="1">
-        <v>2885</v>
+        <v>2868.95</v>
       </c>
       <c r="D2" s="1">
-        <v>2868.95</v>
+        <v>2861.69</v>
       </c>
       <c r="E2" s="1">
-        <v>2861.69</v>
+        <v>2884.61</v>
       </c>
       <c r="F2" s="1">
-        <v>2884.61</v>
+        <v>2825.75</v>
       </c>
       <c r="G2" s="1">
-        <v>2825.75</v>
+        <v>2875.93</v>
       </c>
       <c r="H2" s="1">
-        <v>2875.93</v>
+        <v>2775.29</v>
       </c>
       <c r="I2" s="1">
-        <v>2775.29</v>
+        <v>2721.94</v>
       </c>
       <c r="J2" s="1">
-        <v>2721.94</v>
+        <v>2637.53</v>
       </c>
       <c r="K2" s="1">
-        <v>2637.53</v>
+        <v>2583.87</v>
       </c>
       <c r="L2" s="1">
-        <v>2583.87</v>
+        <v>2570.6799999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>2570.6799999999998</v>
+        <v>2585.42</v>
       </c>
       <c r="N2" s="1">
-        <v>2585.42</v>
+        <v>2652.12</v>
       </c>
       <c r="O2" s="1">
-        <v>2652.12</v>
+        <v>2833.42</v>
       </c>
       <c r="P2" s="1">
-        <v>2833.42</v>
+        <v>2979.76</v>
       </c>
       <c r="Q2" s="1">
-        <v>2979.76</v>
+        <v>3100.74</v>
       </c>
       <c r="R2" s="1">
-        <v>3100.74</v>
+        <v>3095.16</v>
       </c>
       <c r="S2" s="1">
-        <v>3095.16</v>
+        <v>3343.34</v>
       </c>
       <c r="T2" s="1">
-        <v>3343.34</v>
+        <v>3432.5</v>
       </c>
       <c r="U2" s="1">
-        <v>3432.5</v>
+        <v>3495.76</v>
       </c>
       <c r="V2" s="1">
-        <v>3495.76</v>
+        <v>3613.07</v>
       </c>
       <c r="W2" s="1">
-        <v>3613.07</v>
+        <v>3703.93</v>
       </c>
       <c r="X2" s="1">
-        <v>3703.93</v>
+        <v>3748.36</v>
       </c>
       <c r="Y2" s="1">
-        <v>3748.36</v>
+        <v>3785.4</v>
       </c>
       <c r="Z2" s="1">
-        <v>3785.4</v>
+        <v>3905.14</v>
       </c>
       <c r="AA2" s="1">
-        <v>3905.14</v>
+        <v>3932.35</v>
       </c>
       <c r="AB2" s="1">
-        <v>3932.35</v>
+        <v>4054.42</v>
       </c>
       <c r="AC2" s="1">
-        <v>4054.42</v>
+        <v>4100</v>
       </c>
       <c r="AD2" s="1">
-        <v>4100</v>
+        <v>4196.24</v>
       </c>
       <c r="AE2" s="1">
-        <v>4196.24</v>
+        <v>4225.8599999999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>4225.8599999999997</v>
+        <v>4281.53</v>
       </c>
       <c r="AG2" s="1">
-        <v>4281.53</v>
+        <v>4340.18</v>
       </c>
       <c r="AH2" s="1">
-        <v>4340.18</v>
+        <v>4385.62</v>
       </c>
       <c r="AI2" s="1">
-        <v>4385.62</v>
+        <v>4502.6499999999996</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4502.6499999999996</v>
+        <v>4568.16</v>
       </c>
       <c r="AK2" s="1">
-        <v>4568.16</v>
+        <v>4622.51</v>
       </c>
       <c r="AL2" s="1">
-        <v>4622.51</v>
+        <v>4643.79</v>
       </c>
       <c r="AM2" s="1">
-        <v>4643.79</v>
+        <v>4614.1000000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>4614.1000000000004</v>
+        <v>4647.6000000000004</v>
       </c>
       <c r="AO2" s="1">
-        <v>4647.6000000000004</v>
+        <v>4588.07</v>
       </c>
       <c r="AP2" s="1">
-        <v>4588.07</v>
+        <v>4583.3900000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>4583.3900000000003</v>
+        <v>4567.28</v>
       </c>
       <c r="AR2" s="1">
-        <v>4567.28</v>
+        <v>4535.92</v>
       </c>
       <c r="AS2" s="1">
-        <v>4535.92</v>
+        <v>4554.04</v>
       </c>
       <c r="AT2" s="1">
-        <v>4554.04</v>
+        <v>4555.21</v>
       </c>
       <c r="AU2" s="1">
-        <v>4555.21</v>
+        <v>4601.97</v>
       </c>
       <c r="AV2" s="1">
-        <v>4601.97</v>
+        <v>4727.0600000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>4727.0600000000004</v>
+        <v>4810.9799999999996</v>
       </c>
       <c r="AX2" s="1">
-        <v>4810.9799999999996</v>
+        <v>4894.62</v>
       </c>
       <c r="AY2" s="1">
-        <v>4894.62</v>
+        <v>4956.0200000000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4956.0200000000004</v>
+        <v>5046.66</v>
       </c>
       <c r="BA2" s="1">
-        <v>5046.66</v>
+        <v>5109.6000000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>5109.6000000000004</v>
+        <v>5094.3599999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>5094.3599999999997</v>
+        <v>5053.12</v>
       </c>
       <c r="BD2" s="1">
-        <v>5053.12</v>
+        <v>5010.3599999999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>5010.3599999999997</v>
+        <v>4980.93</v>
       </c>
       <c r="BF2" s="1">
-        <v>4980.93</v>
+        <v>4946.01</v>
       </c>
       <c r="BG2" s="1">
-        <v>4946.01</v>
+        <v>4818.47</v>
       </c>
       <c r="BH2" s="1">
-        <v>4818.47</v>
+        <v>4746.9799999999996</v>
       </c>
       <c r="BI2" s="1">
-        <v>4746.9799999999996</v>
+        <v>4625.0600000000004</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4625.0600000000004</v>
+        <v>4540.3100000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>4540.3100000000004</v>
+        <v>4434.07</v>
       </c>
       <c r="BL2" s="1">
-        <v>4434.07</v>
+        <v>4348.71</v>
       </c>
       <c r="BM2" s="1">
-        <v>4348.71</v>
+        <v>4263.66</v>
       </c>
       <c r="BN2" s="1">
-        <v>4263.66</v>
+        <v>4228.6499999999996</v>
       </c>
       <c r="BO2" s="1">
-        <v>4228.6499999999996</v>
+        <v>4195.9799999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>4195.9799999999996</v>
+        <v>4177.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>4177.3</v>
+        <v>4163.74</v>
       </c>
       <c r="BR2" s="1">
-        <v>4163.74</v>
+        <v>4147.83</v>
       </c>
       <c r="BS2" s="1">
-        <v>4147.83</v>
+        <v>4162.6899999999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>4162.6899999999996</v>
+        <v>4175.3500000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>4175.3500000000004</v>
+        <v>4208.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>4208.01</v>
+        <v>4233.3100000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>4233.3100000000004</v>
+        <v>4221.96</v>
       </c>
       <c r="BX2" s="1">
-        <v>4221.96</v>
+        <v>4216.13</v>
       </c>
       <c r="BY2" s="1">
-        <v>4216.13</v>
+        <v>4203.2700000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>4203.2700000000004</v>
+        <v>4143.87</v>
       </c>
       <c r="CA2" s="1">
-        <v>4143.87</v>
-      </c>
-      <c r="CB2" s="1">
         <v>4074.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
